--- a/biology/Zoologie/Hopliancistrus_wolverine/Hopliancistrus_wolverine.xlsx
+++ b/biology/Zoologie/Hopliancistrus_wolverine/Hopliancistrus_wolverine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hopliancistrus wolverine, communément appelé Wolverine pleco, est une espèce de poissons de la famille des Loricariidae qui se rencontre dans les eaux douces tropicales de certaines rivières du Brésil[1]. L’espèce a été identifiée en 2021 dans le rio Xingu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hopliancistrus wolverine, communément appelé Wolverine pleco, est une espèce de poissons de la famille des Loricariidae qui se rencontre dans les eaux douces tropicales de certaines rivières du Brésil. L’espèce a été identifiée en 2021 dans le rio Xingu.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hopliancistrus wolverine a été décrite en 2021 par Renildo Ribeiro de Oliveira (d), Jansen A. S. Zuanon (d), Lucia H. Rapp Py-Daniel (d), José Luís O. Birindelli (d) et Leandro Melo de Sousa (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hopliancistrus wolverine a été décrite en 2021 par Renildo Ribeiro de Oliveira (d), Jansen A. S. Zuanon (d), Lucia H. Rapp Py-Daniel (d), José Luís O. Birindelli (d) et Leandro Melo de Sousa (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, wolverine, fait référence au Glouton, Wolverine en anglais, en raison de sa stature trapue et sa voracité[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, wolverine, fait référence au Glouton, Wolverine en anglais, en raison de sa stature trapue et sa voracité.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Renildo Ribeiro de Oliveira, Jansen Zuanon, Lucia H. Rapp Py-Daniel, José L. O. Birindelli et Leandro M. Sousa, « Taxonomic revision of Hopliancistrus Isbrücker &amp; Nijssen, 1989 (Siluriformes, Loricariidae) with redescription of Hopliancistrus tricornis and description of four new species », PLOS One, PLoS, vol. 16, no 1,‎ 2021, e0244894 (ISSN 1932-6203, OCLC 228234657, PMID 33471818, PMCID 7817055, DOI 10.1371/JOURNAL.PONE.0244894, lire en ligne)</t>
         </is>
